--- a/biology/Zoologie/Acridinae_(insecte)/Acridinae_(insecte).xlsx
+++ b/biology/Zoologie/Acridinae_(insecte)/Acridinae_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Acridinae (les Truxales[1]) sont une sous-famille d'orthoptères caelifères de la famille des Acrididae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Acridinae (les Truxales) sont une sous-famille d'orthoptères caelifères de la famille des Acrididae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des tribus et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (31 mars 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (31 mars 2010) :
 Acridini MacLeay, 1821
 Acrida Linnaeus, 1758
 Acridarachnea Bolívar, 1908
@@ -686,7 +700,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">MacLeay, 1821 : Horae entomologicae: or essays on the annulose animals. Bagster, vol. 1, part. 2, p. 161-524.
 ↑ Heiko Bellman et Gérard Chr. Luquet, Le guide des sauterelles, grillons et criquets d'Europe occidentale, Delachaux et Niestlé, coll. « Les guides du naturaliste », 383 p. (ISBN 978-2603015643), p. 74.
